--- a/docs/attack-excel-files/v18.1/enterprise-attack/enterprise-attack-v18.1-datacomponents.xlsx
+++ b/docs/attack-excel-files/v18.1/enterprise-attack/enterprise-attack-v18.1-datacomponents.xlsx
@@ -2460,16 +2460,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2492,7 +2484,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2500,35 +2492,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2831,31 +2805,31 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2872,7 +2846,7 @@
       <c r="D2" t="s">
         <v>327</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>433</v>
       </c>
       <c r="F2" t="s">
@@ -2901,7 +2875,7 @@
       <c r="D3" t="s">
         <v>328</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>434</v>
       </c>
       <c r="F3" t="s">
@@ -2930,7 +2904,7 @@
       <c r="D4" t="s">
         <v>329</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>435</v>
       </c>
       <c r="F4" t="s">
@@ -2959,7 +2933,7 @@
       <c r="D5" t="s">
         <v>330</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>436</v>
       </c>
       <c r="F5" t="s">
@@ -2988,7 +2962,7 @@
       <c r="D6" t="s">
         <v>331</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>437</v>
       </c>
       <c r="F6" t="s">
@@ -3017,7 +2991,7 @@
       <c r="D7" t="s">
         <v>332</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>438</v>
       </c>
       <c r="F7" t="s">
@@ -3046,7 +3020,7 @@
       <c r="D8" t="s">
         <v>333</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>439</v>
       </c>
       <c r="F8" t="s">
@@ -3075,7 +3049,7 @@
       <c r="D9" t="s">
         <v>334</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>440</v>
       </c>
       <c r="F9" t="s">
@@ -3104,7 +3078,7 @@
       <c r="D10" t="s">
         <v>335</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>441</v>
       </c>
       <c r="F10" t="s">
@@ -3133,7 +3107,7 @@
       <c r="D11" t="s">
         <v>336</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>442</v>
       </c>
       <c r="F11" t="s">
@@ -3162,7 +3136,7 @@
       <c r="D12" t="s">
         <v>337</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>443</v>
       </c>
       <c r="F12" t="s">
@@ -3191,7 +3165,7 @@
       <c r="D13" t="s">
         <v>338</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>444</v>
       </c>
       <c r="F13" t="s">
@@ -3220,7 +3194,7 @@
       <c r="D14" t="s">
         <v>339</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>445</v>
       </c>
       <c r="F14" t="s">
@@ -3249,7 +3223,7 @@
       <c r="D15" t="s">
         <v>340</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>446</v>
       </c>
       <c r="F15" t="s">
@@ -3278,7 +3252,7 @@
       <c r="D16" t="s">
         <v>341</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>447</v>
       </c>
       <c r="F16" t="s">
@@ -3307,7 +3281,7 @@
       <c r="D17" t="s">
         <v>342</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>448</v>
       </c>
       <c r="F17" t="s">
@@ -3336,7 +3310,7 @@
       <c r="D18" t="s">
         <v>343</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>449</v>
       </c>
       <c r="F18" t="s">
@@ -3365,7 +3339,7 @@
       <c r="D19" t="s">
         <v>344</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>450</v>
       </c>
       <c r="F19" t="s">
@@ -3394,7 +3368,7 @@
       <c r="D20" t="s">
         <v>345</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>451</v>
       </c>
       <c r="F20" t="s">
@@ -3423,7 +3397,7 @@
       <c r="D21" t="s">
         <v>346</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>452</v>
       </c>
       <c r="F21" t="s">
@@ -3452,7 +3426,7 @@
       <c r="D22" t="s">
         <v>347</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>453</v>
       </c>
       <c r="F22" t="s">
@@ -3481,7 +3455,7 @@
       <c r="D23" t="s">
         <v>348</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>454</v>
       </c>
       <c r="F23" t="s">
@@ -3510,7 +3484,7 @@
       <c r="D24" t="s">
         <v>349</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>455</v>
       </c>
       <c r="F24" t="s">
@@ -3539,7 +3513,7 @@
       <c r="D25" t="s">
         <v>350</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>456</v>
       </c>
       <c r="F25" t="s">
@@ -3568,7 +3542,7 @@
       <c r="D26" t="s">
         <v>351</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>457</v>
       </c>
       <c r="F26" t="s">
@@ -3597,7 +3571,7 @@
       <c r="D27" t="s">
         <v>352</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>458</v>
       </c>
       <c r="F27" t="s">
@@ -3626,7 +3600,7 @@
       <c r="D28" t="s">
         <v>353</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>459</v>
       </c>
       <c r="F28" t="s">
@@ -3655,7 +3629,7 @@
       <c r="D29" t="s">
         <v>354</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>460</v>
       </c>
       <c r="F29" t="s">
@@ -3684,7 +3658,7 @@
       <c r="D30" t="s">
         <v>355</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>461</v>
       </c>
       <c r="F30" t="s">
@@ -3713,7 +3687,7 @@
       <c r="D31" t="s">
         <v>356</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>462</v>
       </c>
       <c r="F31" t="s">
@@ -3742,7 +3716,7 @@
       <c r="D32" t="s">
         <v>357</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>463</v>
       </c>
       <c r="F32" t="s">
@@ -3771,7 +3745,7 @@
       <c r="D33" t="s">
         <v>358</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>464</v>
       </c>
       <c r="F33" t="s">
@@ -3800,7 +3774,7 @@
       <c r="D34" t="s">
         <v>359</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>465</v>
       </c>
       <c r="F34" t="s">
@@ -3829,7 +3803,7 @@
       <c r="D35" t="s">
         <v>360</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
         <v>466</v>
       </c>
       <c r="F35" t="s">
@@ -3858,7 +3832,7 @@
       <c r="D36" t="s">
         <v>361</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1" t="s">
         <v>467</v>
       </c>
       <c r="F36" t="s">
@@ -3887,7 +3861,7 @@
       <c r="D37" t="s">
         <v>362</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>468</v>
       </c>
       <c r="F37" t="s">
@@ -3916,7 +3890,7 @@
       <c r="D38" t="s">
         <v>363</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>469</v>
       </c>
       <c r="F38" t="s">
@@ -3945,7 +3919,7 @@
       <c r="D39" t="s">
         <v>364</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1" t="s">
         <v>470</v>
       </c>
       <c r="F39" t="s">
@@ -3974,7 +3948,7 @@
       <c r="D40" t="s">
         <v>365</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
         <v>471</v>
       </c>
       <c r="F40" t="s">
@@ -4003,7 +3977,7 @@
       <c r="D41" t="s">
         <v>366</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="1" t="s">
         <v>472</v>
       </c>
       <c r="F41" t="s">
@@ -4032,7 +4006,7 @@
       <c r="D42" t="s">
         <v>367</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="1" t="s">
         <v>473</v>
       </c>
       <c r="F42" t="s">
@@ -4061,7 +4035,7 @@
       <c r="D43" t="s">
         <v>368</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="1" t="s">
         <v>474</v>
       </c>
       <c r="F43" t="s">
@@ -4090,7 +4064,7 @@
       <c r="D44" t="s">
         <v>369</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="1" t="s">
         <v>475</v>
       </c>
       <c r="F44" t="s">
@@ -4119,7 +4093,7 @@
       <c r="D45" t="s">
         <v>370</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="1" t="s">
         <v>476</v>
       </c>
       <c r="F45" t="s">
@@ -4148,7 +4122,7 @@
       <c r="D46" t="s">
         <v>371</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="1" t="s">
         <v>477</v>
       </c>
       <c r="F46" t="s">
@@ -4177,7 +4151,7 @@
       <c r="D47" t="s">
         <v>372</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="1" t="s">
         <v>478</v>
       </c>
       <c r="F47" t="s">
@@ -4206,7 +4180,7 @@
       <c r="D48" t="s">
         <v>373</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="1" t="s">
         <v>479</v>
       </c>
       <c r="F48" t="s">
@@ -4235,7 +4209,7 @@
       <c r="D49" t="s">
         <v>374</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="1" t="s">
         <v>480</v>
       </c>
       <c r="F49" t="s">
@@ -4264,7 +4238,7 @@
       <c r="D50" t="s">
         <v>375</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="1" t="s">
         <v>481</v>
       </c>
       <c r="F50" t="s">
@@ -4293,7 +4267,7 @@
       <c r="D51" t="s">
         <v>376</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="1" t="s">
         <v>482</v>
       </c>
       <c r="F51" t="s">
@@ -4322,7 +4296,7 @@
       <c r="D52" t="s">
         <v>377</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="1" t="s">
         <v>483</v>
       </c>
       <c r="F52" t="s">
@@ -4351,7 +4325,7 @@
       <c r="D53" t="s">
         <v>378</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="1" t="s">
         <v>484</v>
       </c>
       <c r="F53" t="s">
@@ -4380,7 +4354,7 @@
       <c r="D54" t="s">
         <v>379</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="1" t="s">
         <v>485</v>
       </c>
       <c r="F54" t="s">
@@ -4409,7 +4383,7 @@
       <c r="D55" t="s">
         <v>380</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="1" t="s">
         <v>486</v>
       </c>
       <c r="F55" t="s">
@@ -4438,7 +4412,7 @@
       <c r="D56" t="s">
         <v>381</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="1" t="s">
         <v>487</v>
       </c>
       <c r="F56" t="s">
@@ -4467,7 +4441,7 @@
       <c r="D57" t="s">
         <v>382</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="1" t="s">
         <v>488</v>
       </c>
       <c r="F57" t="s">
@@ -4496,7 +4470,7 @@
       <c r="D58" t="s">
         <v>383</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="1" t="s">
         <v>489</v>
       </c>
       <c r="F58" t="s">
@@ -4525,7 +4499,7 @@
       <c r="D59" t="s">
         <v>384</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="1" t="s">
         <v>490</v>
       </c>
       <c r="F59" t="s">
@@ -4554,7 +4528,7 @@
       <c r="D60" t="s">
         <v>385</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="1" t="s">
         <v>491</v>
       </c>
       <c r="F60" t="s">
@@ -4583,7 +4557,7 @@
       <c r="D61" t="s">
         <v>386</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="1" t="s">
         <v>492</v>
       </c>
       <c r="F61" t="s">
@@ -4612,7 +4586,7 @@
       <c r="D62" t="s">
         <v>387</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="1" t="s">
         <v>493</v>
       </c>
       <c r="F62" t="s">
@@ -4641,7 +4615,7 @@
       <c r="D63" t="s">
         <v>388</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="1" t="s">
         <v>494</v>
       </c>
       <c r="F63" t="s">
@@ -4670,7 +4644,7 @@
       <c r="D64" t="s">
         <v>389</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="1" t="s">
         <v>495</v>
       </c>
       <c r="F64" t="s">
@@ -4699,7 +4673,7 @@
       <c r="D65" t="s">
         <v>390</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="1" t="s">
         <v>496</v>
       </c>
       <c r="F65" t="s">
@@ -4728,7 +4702,7 @@
       <c r="D66" t="s">
         <v>391</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="1" t="s">
         <v>497</v>
       </c>
       <c r="F66" t="s">
@@ -4757,7 +4731,7 @@
       <c r="D67" t="s">
         <v>392</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="1" t="s">
         <v>498</v>
       </c>
       <c r="F67" t="s">
@@ -4786,7 +4760,7 @@
       <c r="D68" t="s">
         <v>393</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="1" t="s">
         <v>499</v>
       </c>
       <c r="F68" t="s">
@@ -4815,7 +4789,7 @@
       <c r="D69" t="s">
         <v>394</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="1" t="s">
         <v>500</v>
       </c>
       <c r="F69" t="s">
@@ -4844,7 +4818,7 @@
       <c r="D70" t="s">
         <v>395</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="1" t="s">
         <v>501</v>
       </c>
       <c r="F70" t="s">
@@ -4873,7 +4847,7 @@
       <c r="D71" t="s">
         <v>396</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="1" t="s">
         <v>502</v>
       </c>
       <c r="F71" t="s">
@@ -4902,7 +4876,7 @@
       <c r="D72" t="s">
         <v>397</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="1" t="s">
         <v>503</v>
       </c>
       <c r="F72" t="s">
@@ -4931,7 +4905,7 @@
       <c r="D73" t="s">
         <v>398</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="1" t="s">
         <v>504</v>
       </c>
       <c r="F73" t="s">
@@ -4960,7 +4934,7 @@
       <c r="D74" t="s">
         <v>399</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="1" t="s">
         <v>505</v>
       </c>
       <c r="F74" t="s">
@@ -4989,7 +4963,7 @@
       <c r="D75" t="s">
         <v>400</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="1" t="s">
         <v>506</v>
       </c>
       <c r="F75" t="s">
@@ -5018,7 +4992,7 @@
       <c r="D76" t="s">
         <v>401</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="1" t="s">
         <v>507</v>
       </c>
       <c r="F76" t="s">
@@ -5047,7 +5021,7 @@
       <c r="D77" t="s">
         <v>402</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="1" t="s">
         <v>508</v>
       </c>
       <c r="F77" t="s">
@@ -5076,7 +5050,7 @@
       <c r="D78" t="s">
         <v>403</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="1" t="s">
         <v>509</v>
       </c>
       <c r="F78" t="s">
@@ -5105,7 +5079,7 @@
       <c r="D79" t="s">
         <v>404</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="1" t="s">
         <v>510</v>
       </c>
       <c r="F79" t="s">
@@ -5134,7 +5108,7 @@
       <c r="D80" t="s">
         <v>405</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="1" t="s">
         <v>511</v>
       </c>
       <c r="F80" t="s">
@@ -5163,7 +5137,7 @@
       <c r="D81" t="s">
         <v>406</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="1" t="s">
         <v>512</v>
       </c>
       <c r="F81" t="s">
@@ -5192,7 +5166,7 @@
       <c r="D82" t="s">
         <v>407</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="1" t="s">
         <v>513</v>
       </c>
       <c r="F82" t="s">
@@ -5221,7 +5195,7 @@
       <c r="D83" t="s">
         <v>408</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="1" t="s">
         <v>514</v>
       </c>
       <c r="F83" t="s">
@@ -5250,7 +5224,7 @@
       <c r="D84" t="s">
         <v>409</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="1" t="s">
         <v>515</v>
       </c>
       <c r="F84" t="s">
@@ -5279,7 +5253,7 @@
       <c r="D85" t="s">
         <v>410</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="1" t="s">
         <v>516</v>
       </c>
       <c r="F85" t="s">
@@ -5308,7 +5282,7 @@
       <c r="D86" t="s">
         <v>411</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="1" t="s">
         <v>517</v>
       </c>
       <c r="F86" t="s">
@@ -5337,7 +5311,7 @@
       <c r="D87" t="s">
         <v>412</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="1" t="s">
         <v>518</v>
       </c>
       <c r="F87" t="s">
@@ -5366,7 +5340,7 @@
       <c r="D88" t="s">
         <v>413</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="1" t="s">
         <v>519</v>
       </c>
       <c r="F88" t="s">
@@ -5395,7 +5369,7 @@
       <c r="D89" t="s">
         <v>414</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="1" t="s">
         <v>520</v>
       </c>
       <c r="F89" t="s">
@@ -5424,7 +5398,7 @@
       <c r="D90" t="s">
         <v>415</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="1" t="s">
         <v>521</v>
       </c>
       <c r="F90" t="s">
@@ -5453,7 +5427,7 @@
       <c r="D91" t="s">
         <v>416</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="1" t="s">
         <v>522</v>
       </c>
       <c r="F91" t="s">
@@ -5482,7 +5456,7 @@
       <c r="D92" t="s">
         <v>417</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="1" t="s">
         <v>523</v>
       </c>
       <c r="F92" t="s">
@@ -5511,7 +5485,7 @@
       <c r="D93" t="s">
         <v>418</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="1" t="s">
         <v>524</v>
       </c>
       <c r="F93" t="s">
@@ -5540,7 +5514,7 @@
       <c r="D94" t="s">
         <v>419</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="1" t="s">
         <v>525</v>
       </c>
       <c r="F94" t="s">
@@ -5569,7 +5543,7 @@
       <c r="D95" t="s">
         <v>420</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="1" t="s">
         <v>526</v>
       </c>
       <c r="F95" t="s">
@@ -5598,7 +5572,7 @@
       <c r="D96" t="s">
         <v>421</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="1" t="s">
         <v>527</v>
       </c>
       <c r="F96" t="s">
@@ -5627,7 +5601,7 @@
       <c r="D97" t="s">
         <v>422</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="1" t="s">
         <v>528</v>
       </c>
       <c r="F97" t="s">
@@ -5656,7 +5630,7 @@
       <c r="D98" t="s">
         <v>423</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="1" t="s">
         <v>529</v>
       </c>
       <c r="F98" t="s">
@@ -5685,7 +5659,7 @@
       <c r="D99" t="s">
         <v>424</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="1" t="s">
         <v>530</v>
       </c>
       <c r="F99" t="s">
@@ -5714,7 +5688,7 @@
       <c r="D100" t="s">
         <v>425</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="1" t="s">
         <v>531</v>
       </c>
       <c r="F100" t="s">
@@ -5743,7 +5717,7 @@
       <c r="D101" t="s">
         <v>426</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="1" t="s">
         <v>532</v>
       </c>
       <c r="F101" t="s">
@@ -5772,7 +5746,7 @@
       <c r="D102" t="s">
         <v>427</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="1" t="s">
         <v>533</v>
       </c>
       <c r="F102" t="s">
@@ -5801,7 +5775,7 @@
       <c r="D103" t="s">
         <v>428</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="1" t="s">
         <v>534</v>
       </c>
       <c r="F103" t="s">
@@ -5830,7 +5804,7 @@
       <c r="D104" t="s">
         <v>429</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="1" t="s">
         <v>535</v>
       </c>
       <c r="F104" t="s">
@@ -5859,7 +5833,7 @@
       <c r="D105" t="s">
         <v>430</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="1" t="s">
         <v>536</v>
       </c>
       <c r="F105" t="s">
@@ -5888,7 +5862,7 @@
       <c r="D106" t="s">
         <v>431</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="1" t="s">
         <v>537</v>
       </c>
       <c r="F106" t="s">
@@ -5917,7 +5891,7 @@
       <c r="D107" t="s">
         <v>432</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" s="1" t="s">
         <v>538</v>
       </c>
       <c r="F107" t="s">
